--- a/Data/PrecipitacionIdeal2.xlsx
+++ b/Data/PrecipitacionIdeal2.xlsx
@@ -922,7 +922,7 @@
   <dimension ref="A1:E83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -957,7 +957,7 @@
       </c>
       <c r="C2" s="3">
         <f ca="1">RANDBETWEEN(10000,15000)</f>
-        <v>13457</v>
+        <v>11358</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -975,7 +975,7 @@
       </c>
       <c r="C3" s="3">
         <f t="shared" ref="C3:C66" ca="1" si="0">RANDBETWEEN(10000,15000)</f>
-        <v>11018</v>
+        <v>11111</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -993,7 +993,7 @@
       </c>
       <c r="C4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>11433</v>
+        <v>13646</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>13566</v>
+        <v>13269</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>11157</v>
+        <v>10346</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>12288</v>
+        <v>14635</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>12379</v>
+        <v>10768</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>10119</v>
+        <v>12561</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>13434</v>
+        <v>11637</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>11043</v>
+        <v>13891</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>14665</v>
+        <v>12331</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>12909</v>
+        <v>13734</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>11439</v>
+        <v>12680</v>
       </c>
       <c r="D14" t="s">
         <v>4</v>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>10729</v>
+        <v>11197</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>14151</v>
+        <v>13538</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
@@ -1227,7 +1227,7 @@
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>14815</v>
+        <v>13946</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>12074</v>
+        <v>14102</v>
       </c>
       <c r="D18" t="s">
         <v>8</v>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>13119</v>
+        <v>10156</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>13150</v>
+        <v>12177</v>
       </c>
       <c r="D20" t="s">
         <v>10</v>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>12241</v>
+        <v>13198</v>
       </c>
       <c r="D21" t="s">
         <v>11</v>
@@ -1317,7 +1317,7 @@
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>10756</v>
+        <v>13715</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>13832</v>
+        <v>13418</v>
       </c>
       <c r="D23" t="s">
         <v>13</v>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>13834</v>
+        <v>10970</v>
       </c>
       <c r="D24" t="s">
         <v>14</v>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>13116</v>
+        <v>15000</v>
       </c>
       <c r="D25" t="s">
         <v>15</v>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>13401</v>
+        <v>12972</v>
       </c>
       <c r="D26" t="s">
         <v>4</v>
@@ -1407,7 +1407,7 @@
       </c>
       <c r="C27" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>13180</v>
+        <v>11759</v>
       </c>
       <c r="D27" t="s">
         <v>5</v>
@@ -1425,7 +1425,7 @@
       </c>
       <c r="C28" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>14284</v>
+        <v>14188</v>
       </c>
       <c r="D28" t="s">
         <v>6</v>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="C29" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>10543</v>
+        <v>12408</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="C30" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>11674</v>
+        <v>11406</v>
       </c>
       <c r="D30" t="s">
         <v>8</v>
@@ -1479,7 +1479,7 @@
       </c>
       <c r="C31" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>10622</v>
+        <v>13670</v>
       </c>
       <c r="D31" t="s">
         <v>9</v>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="C32" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>14207</v>
+        <v>13711</v>
       </c>
       <c r="D32" t="s">
         <v>10</v>
@@ -1515,7 +1515,7 @@
       </c>
       <c r="C33" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>10267</v>
+        <v>13752</v>
       </c>
       <c r="D33" t="s">
         <v>11</v>
@@ -1533,7 +1533,7 @@
       </c>
       <c r="C34" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>10046</v>
+        <v>11374</v>
       </c>
       <c r="D34" t="s">
         <v>12</v>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="C35" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>11663</v>
+        <v>11791</v>
       </c>
       <c r="D35" t="s">
         <v>13</v>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="C36" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>14365</v>
+        <v>14239</v>
       </c>
       <c r="D36" t="s">
         <v>14</v>
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>14203</v>
+        <v>12366</v>
       </c>
       <c r="D37" t="s">
         <v>15</v>
@@ -1605,7 +1605,7 @@
       </c>
       <c r="C38" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>14133</v>
+        <v>12276</v>
       </c>
       <c r="D38" t="s">
         <v>4</v>
@@ -1623,7 +1623,7 @@
       </c>
       <c r="C39" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>10635</v>
+        <v>10708</v>
       </c>
       <c r="D39" t="s">
         <v>5</v>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="C40" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>14464</v>
+        <v>14824</v>
       </c>
       <c r="D40" t="s">
         <v>6</v>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="C41" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>11195</v>
+        <v>11293</v>
       </c>
       <c r="D41" t="s">
         <v>7</v>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="C42" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>10796</v>
+        <v>12901</v>
       </c>
       <c r="D42" t="s">
         <v>8</v>
@@ -1695,7 +1695,7 @@
       </c>
       <c r="C43" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>14663</v>
+        <v>12845</v>
       </c>
       <c r="D43" t="s">
         <v>9</v>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="C44" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>13637</v>
+        <v>14705</v>
       </c>
       <c r="D44" t="s">
         <v>10</v>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="C45" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>13890</v>
+        <v>14353</v>
       </c>
       <c r="D45" t="s">
         <v>11</v>
@@ -1749,7 +1749,7 @@
       </c>
       <c r="C46" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>13714</v>
+        <v>12390</v>
       </c>
       <c r="D46" t="s">
         <v>12</v>
@@ -1767,7 +1767,7 @@
       </c>
       <c r="C47" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>11429</v>
+        <v>11949</v>
       </c>
       <c r="D47" t="s">
         <v>13</v>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="C48" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>13490</v>
+        <v>12863</v>
       </c>
       <c r="D48" t="s">
         <v>14</v>
@@ -1803,7 +1803,7 @@
       </c>
       <c r="C49" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>12028</v>
+        <v>12060</v>
       </c>
       <c r="D49" t="s">
         <v>15</v>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="C50" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>11169</v>
+        <v>10653</v>
       </c>
       <c r="D50" t="s">
         <v>4</v>
@@ -1839,7 +1839,7 @@
       </c>
       <c r="C51" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>12601</v>
+        <v>11745</v>
       </c>
       <c r="D51" t="s">
         <v>5</v>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="C52" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>11648</v>
+        <v>13981</v>
       </c>
       <c r="D52" t="s">
         <v>6</v>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C53" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>13277</v>
+        <v>10301</v>
       </c>
       <c r="D53" t="s">
         <v>16</v>
@@ -1893,7 +1893,7 @@
       </c>
       <c r="C54" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>11623</v>
+        <v>13874</v>
       </c>
       <c r="D54" t="s">
         <v>8</v>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="C55" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>10957</v>
+        <v>10705</v>
       </c>
       <c r="D55" t="s">
         <v>17</v>
@@ -1929,7 +1929,7 @@
       </c>
       <c r="C56" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>10440</v>
+        <v>10631</v>
       </c>
       <c r="D56" t="s">
         <v>10</v>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="C57" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>13550</v>
+        <v>13571</v>
       </c>
       <c r="D57" t="s">
         <v>11</v>
@@ -1965,7 +1965,7 @@
       </c>
       <c r="C58" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>14099</v>
+        <v>14219</v>
       </c>
       <c r="D58" t="s">
         <v>12</v>
@@ -1983,7 +1983,7 @@
       </c>
       <c r="C59" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>12234</v>
+        <v>13942</v>
       </c>
       <c r="D59" t="s">
         <v>13</v>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="C60" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>13371</v>
+        <v>10506</v>
       </c>
       <c r="D60" t="s">
         <v>14</v>
@@ -2019,7 +2019,7 @@
       </c>
       <c r="C61" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>13419</v>
+        <v>12226</v>
       </c>
       <c r="D61" t="s">
         <v>18</v>
@@ -2037,7 +2037,7 @@
       </c>
       <c r="C62" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>13210</v>
+        <v>13192</v>
       </c>
       <c r="D62" t="s">
         <v>4</v>
@@ -2055,7 +2055,7 @@
       </c>
       <c r="C63" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>14264</v>
+        <v>14135</v>
       </c>
       <c r="D63" t="s">
         <v>5</v>
@@ -2073,7 +2073,7 @@
       </c>
       <c r="C64" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>14204</v>
+        <v>11371</v>
       </c>
       <c r="D64" t="s">
         <v>6</v>
@@ -2091,7 +2091,7 @@
       </c>
       <c r="C65" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>13374</v>
+        <v>11464</v>
       </c>
       <c r="D65" t="s">
         <v>7</v>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="C66" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>13547</v>
+        <v>11046</v>
       </c>
       <c r="D66" t="s">
         <v>8</v>
@@ -2127,7 +2127,7 @@
       </c>
       <c r="C67" s="3">
         <f t="shared" ref="C67:C82" ca="1" si="1">RANDBETWEEN(10000,15000)</f>
-        <v>11360</v>
+        <v>10002</v>
       </c>
       <c r="D67" t="s">
         <v>9</v>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="C68" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>12370</v>
+        <v>13832</v>
       </c>
       <c r="D68" t="s">
         <v>10</v>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C69" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>10726</v>
+        <v>11299</v>
       </c>
       <c r="D69" t="s">
         <v>11</v>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="C70" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>10611</v>
+        <v>11053</v>
       </c>
       <c r="D70" t="s">
         <v>12</v>
@@ -2199,7 +2199,7 @@
       </c>
       <c r="C71" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>12387</v>
+        <v>11717</v>
       </c>
       <c r="D71" t="s">
         <v>13</v>
@@ -2217,7 +2217,7 @@
       </c>
       <c r="C72" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>12343</v>
+        <v>11355</v>
       </c>
       <c r="D72" t="s">
         <v>14</v>
@@ -2235,7 +2235,7 @@
       </c>
       <c r="C73" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>12389</v>
+        <v>13918</v>
       </c>
       <c r="D73" t="s">
         <v>18</v>
@@ -2253,7 +2253,7 @@
       </c>
       <c r="C74" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>12346</v>
+        <v>14128</v>
       </c>
       <c r="D74" t="s">
         <v>4</v>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="C75" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>11862</v>
+        <v>14225</v>
       </c>
       <c r="D75" t="s">
         <v>5</v>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="C76" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>12981</v>
+        <v>11367</v>
       </c>
       <c r="D76" t="s">
         <v>19</v>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="C77" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>14638</v>
+        <v>10909</v>
       </c>
       <c r="D77" t="s">
         <v>7</v>
@@ -2325,7 +2325,7 @@
       </c>
       <c r="C78" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>14075</v>
+        <v>11667</v>
       </c>
       <c r="D78" t="s">
         <v>8</v>
@@ -2343,7 +2343,7 @@
       </c>
       <c r="C79" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>13913</v>
+        <v>14323</v>
       </c>
       <c r="D79" t="s">
         <v>9</v>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="C80" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>13614</v>
+        <v>13692</v>
       </c>
       <c r="D80" t="s">
         <v>10</v>
@@ -2379,7 +2379,7 @@
       </c>
       <c r="C81" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>12114</v>
+        <v>10330</v>
       </c>
       <c r="D81" t="s">
         <v>11</v>
@@ -2397,7 +2397,7 @@
       </c>
       <c r="C82" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>13872</v>
+        <v>11572</v>
       </c>
       <c r="D82" t="s">
         <v>12</v>
